--- a/MASTER LIST Module number.xlsx
+++ b/MASTER LIST Module number.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Manuals"/>
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Manuals!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">SOPs!$A$1:$E$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">SOPs!$A$1:$E$72</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="315">
   <si>
     <t>Trainings</t>
   </si>
@@ -36,6 +36,9 @@
     <t>Category</t>
   </si>
   <si>
+    <t>Replacement of Stacker Crane Wire Rope</t>
+  </si>
+  <si>
     <t>Replacing the Wire Rope in Stacker Crane</t>
   </si>
   <si>
@@ -196,6 +199,9 @@
   </si>
   <si>
     <t>LSME-CRG-SOP-024</t>
+  </si>
+  <si>
+    <t>Chiller Room Door Teaching Procedure for Door Control Panel TS 981</t>
   </si>
   <si>
     <t xml:space="preserve"> Chiller Room Door Teaching Procedure for Door Control Panel TS 981</t>
@@ -317,6 +323,12 @@
   </si>
   <si>
     <t xml:space="preserve">LSME-QDF-SOP-002 </t>
+  </si>
+  <si>
+    <t>Equipment Operation Procedure(QDF-SOP-003)</t>
+  </si>
+  <si>
+    <t>LSME-QDF-SOP-003</t>
   </si>
   <si>
     <t>VNA Truck-K ELOKON Software</t>
@@ -977,7 +989,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1053,7 +1065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1065,7 +1077,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1077,12 +1089,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1389,12 +1398,12 @@
   </sheetPr>
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="46.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="55.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="46.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="55.29071428571429" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="21.433571428571426" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="8" width="13.862142857142858" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="8" width="21.576428571428572" customWidth="1" bestFit="1"/>
@@ -1408,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1419,1018 +1428,1018 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
       <c r="A7" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
       <c r="A9" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
       <c r="A10" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
       <c r="A11" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
       <c r="A12" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
       <c r="A13" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
       <c r="A14" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
       <c r="A15" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
       <c r="A16" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
       <c r="A17" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
       <c r="A18" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
       <c r="A19" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
       <c r="A20" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
       <c r="A21" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
       <c r="A22" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
       <c r="A23" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
       <c r="A24" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
       <c r="A25" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
       <c r="A26" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
       <c r="A27" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="14.4">
       <c r="A28" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
       <c r="A29" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
       <c r="A30" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
       <c r="A31" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
       <c r="A32" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
       <c r="A33" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
       <c r="A34" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
       <c r="A35" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
       <c r="A36" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
       <c r="A37" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
       <c r="A38" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
       <c r="A39" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
       <c r="A40" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
       <c r="A41" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
       <c r="A42" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
       <c r="A43" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
       <c r="A44" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
       <c r="A45" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
       <c r="A46" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
       <c r="A47" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
       <c r="A48" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
       <c r="A49" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
       <c r="A50" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
       <c r="A51" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
       <c r="A54" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
       <c r="A55" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
       <c r="A56" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
       <c r="A57" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
       <c r="A58" s="6" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
       <c r="A59" s="6" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
       <c r="A60" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
       <c r="A61" s="9" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2443,9 +2452,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2478,887 +2487,887 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
       <c r="A24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
       <c r="A29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
       <c r="A30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="27">
       <c r="A32" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
       <c r="A40" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
       <c r="A41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
       <c r="A42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
       <c r="A43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
       <c r="A46" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
       <c r="A47" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
       <c r="A50" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
       <c r="A51" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
       <c r="A52" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
-      <c r="A53" s="4"/>
+      <c r="A53" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B53" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
-      <c r="A54" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18" hidden="1">
+      <c r="A54" s="4"/>
       <c r="B54" s="2" t="s">
         <v>119</v>
       </c>
@@ -3366,304 +3375,321 @@
         <v>120</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
       <c r="A55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
       <c r="A56" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
       <c r="A57" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
-      <c r="A58" s="4"/>
+      <c r="A58" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="B58" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
       <c r="A59" s="4"/>
       <c r="B59" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
-      <c r="A60" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A60" s="4"/>
       <c r="B60" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
-      <c r="A61" s="4"/>
+      <c r="A61" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="B61" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
       <c r="A62" s="4"/>
       <c r="B62" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
-      <c r="A63" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A63" s="4"/>
       <c r="B63" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
-      <c r="A64" s="4"/>
+      <c r="A64" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="B64" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
       <c r="A65" s="4"/>
       <c r="B65" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
-      <c r="A66" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="A66" s="4"/>
       <c r="B66" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="20.25">
       <c r="A67" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="20.25">
       <c r="A68" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="20.25">
       <c r="A69" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B69" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="B69" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="C69" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="D69" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="20.25">
       <c r="A70" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="B70" s="6" t="s">
         <v>159</v>
       </c>
+      <c r="C70" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="D70" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="20.25">
       <c r="A71" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="20.25">
       <c r="A72" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="20.25">
+      <c r="A73" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
